--- a/Dictionnaire.xlsx
+++ b/Dictionnaire.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WebDevelopment\ProgramWebServeur\Lab2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ca.intra\MesDocumentsETU\2017\201797426\GitHub\films\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Libellé de la propieté</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>nom_client</t>
+  </si>
+  <si>
+    <t>Prenom client</t>
+  </si>
+  <si>
+    <t>prenom_client</t>
   </si>
 </sst>
 </file>
@@ -260,13 +266,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -552,18 +558,18 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="39.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -575,7 +581,7 @@
       <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -594,10 +600,18 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="4"/>
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
